--- a/Documents/Estimations/Coût2.xlsx
+++ b/Documents/Estimations/Coût2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benjamin\Documents\GitHub\projet-5-credits\Documents\Estimations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07279948-94AE-45AF-B672-F770E98CDEE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{93FC5284-2776-419A-918C-10728DE54944}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30945" yWindow="2940" windowWidth="21600" windowHeight="11385" xr2:uid="{4E4A5E19-7556-4C86-A701-DB9D7891D5F7}"/>
+    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{4E4A5E19-7556-4C86-A701-DB9D7891D5F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
